--- a/docs/diseno/trazabilidad-tablas.xlsx
+++ b/docs/diseno/trazabilidad-tablas.xlsx
@@ -22,6 +22,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t xml:space="preserve">ECU-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU-027</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARCHIVO</t>
   </si>
   <si>
@@ -92,87 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">TURNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU027</t>
   </si>
 </sst>
 </file>
@@ -273,20 +273,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:Y1"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7959183673469"/>
-    <col collapsed="false" hidden="false" max="25" min="2" style="0" width="4.11224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.219387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="2" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="84.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -359,140 +359,200 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
         <v>50</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/diseno/trazabilidad-tablas.xlsx
+++ b/docs/diseno/trazabilidad-tablas.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="webapp" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="terminal" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="pago" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t xml:space="preserve">ECU-001</t>
   </si>
@@ -182,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,6 +205,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,12 +256,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,97 +292,102 @@
   </sheetPr>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF13" activeCellId="0" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.219387755102"/>
-    <col collapsed="false" hidden="false" max="28" min="2" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="20" min="6" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="28" min="23" style="0" width="2.81632653061224"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -373,7 +395,7 @@
       <c r="A2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -386,7 +408,7 @@
       <c r="A4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -424,10 +446,13 @@
       <c r="A11" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="0" t="n">
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -435,13 +460,13 @@
       <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="0" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -469,16 +494,16 @@
       <c r="A17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" s="0" t="n">
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -491,10 +516,10 @@
       <c r="A19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="0" t="n">
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,10 +527,10 @@
       <c r="A20" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" s="0" t="n">
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -513,10 +538,10 @@
       <c r="A21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" s="0" t="n">
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -524,7 +549,7 @@
       <c r="A22" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -537,10 +562,10 @@
       <c r="A24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" s="0" t="n">
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,10 +573,10 @@
       <c r="A25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" s="0" t="n">
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,4 +589,788 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R7" activeCellId="0" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.219387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="2" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/diseno/trazabilidad-tablas.xlsx
+++ b/docs/diseno/trazabilidad-tablas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="webapp" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t xml:space="preserve">ECU-001</t>
   </si>
@@ -256,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,6 +270,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,14 +602,22 @@
   </sheetPr>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R7" activeCellId="0" sqref="R7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.219387755102"/>
-    <col collapsed="false" hidden="false" max="28" min="2" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="15" min="6" style="1" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="20" min="17" style="1" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="27" min="23" style="1" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="2.81632653061224"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -614,58 +626,58 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -674,19 +686,19 @@
       <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -697,13 +709,13 @@
       <c r="A2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="0" t="n">
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,13 +723,13 @@
       <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="0" t="n">
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -725,43 +737,43 @@
       <c r="A4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="0" t="n">
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -769,16 +781,16 @@
       <c r="A5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="0" t="n">
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -786,19 +798,19 @@
       <c r="A6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="0" t="n">
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -806,43 +818,43 @@
       <c r="A7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -850,10 +862,10 @@
       <c r="A8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="0" t="n">
+      <c r="Q8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -861,22 +873,22 @@
       <c r="A9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="0" t="n">
+      <c r="J9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,16 +896,16 @@
       <c r="A10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="0" t="n">
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -901,31 +913,31 @@
       <c r="A11" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="0" t="n">
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -933,31 +945,31 @@
       <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="0" t="n">
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -965,22 +977,22 @@
       <c r="A13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="0" t="n">
+      <c r="J13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,43 +1000,43 @@
       <c r="A14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="0" t="n">
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,16 +1044,16 @@
       <c r="A15" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="0" t="n">
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1049,16 +1061,16 @@
       <c r="A16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="0" t="n">
+      <c r="M16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,40 +1078,40 @@
       <c r="A17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="0" t="n">
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1107,13 +1119,13 @@
       <c r="A18" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="0" t="n">
+      <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1121,31 +1133,31 @@
       <c r="A19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" s="0" t="n">
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1153,61 +1165,61 @@
       <c r="A20" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="0" t="n">
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1215,34 +1227,34 @@
       <c r="A21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="0" t="n">
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1250,22 +1262,22 @@
       <c r="A22" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="0" t="n">
+      <c r="J22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,22 +1285,22 @@
       <c r="A23" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="0" t="n">
+      <c r="F23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1296,28 +1308,28 @@
       <c r="A24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="0" t="n">
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1325,16 +1337,16 @@
       <c r="A25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" s="0" t="n">
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1354,17 +1366,752 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB21" activeCellId="0" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.219387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="2" style="0" width="2.81632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/diseno/trazabilidad-tablas.xlsx
+++ b/docs/diseno/trazabilidad-tablas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="webapp" sheetId="1" state="visible" r:id="rId2"/>
@@ -297,19 +297,19 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF13" activeCellId="0" sqref="AF13"/>
+      <selection pane="topLeft" activeCell="AF13" activeCellId="1" sqref="AB:AB AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.219387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="20" min="6" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="28" min="23" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="2.93367346938775"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="2.93367346938775"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="2.93367346938775"/>
+    <col collapsed="false" hidden="false" max="20" min="6" style="0" width="2.93367346938775"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="2.93367346938775"/>
+    <col collapsed="false" hidden="false" max="28" min="23" style="0" width="2.93367346938775"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="12.25"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,6 +399,9 @@
       <c r="A2" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="B2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="U2" s="0"/>
       <c r="V2" s="1" t="n">
         <v>1</v>
       </c>
@@ -407,11 +410,18 @@
       <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="B3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="B4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="U4" s="0"/>
       <c r="V4" s="1" t="n">
         <v>1</v>
       </c>
@@ -420,31 +430,55 @@
       <c r="A5" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="B6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="B7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="B8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="B9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="B10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -453,6 +487,7 @@
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E11" s="0"/>
       <c r="U11" s="1" t="n">
         <v>1</v>
       </c>
@@ -467,6 +502,7 @@
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E12" s="0"/>
       <c r="U12" s="1" t="n">
         <v>1</v>
       </c>
@@ -478,21 +514,37 @@
       <c r="A13" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="B13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="B14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="B15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="B16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -515,6 +567,9 @@
       <c r="A18" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="B18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -526,6 +581,7 @@
       <c r="U19" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="V19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -537,6 +593,7 @@
       <c r="U20" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="V20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -548,11 +605,14 @@
       <c r="U21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="V21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="B22" s="0"/>
+      <c r="U22" s="0"/>
       <c r="V22" s="1" t="n">
         <v>1</v>
       </c>
@@ -561,6 +621,9 @@
       <c r="A23" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="B23" s="0"/>
+      <c r="U23" s="0"/>
+      <c r="V23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -569,6 +632,7 @@
       <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="U24" s="0"/>
       <c r="V24" s="1" t="n">
         <v>1</v>
       </c>
@@ -602,23 +666,23 @@
   </sheetPr>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB:AB"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.219387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="15" min="6" style="1" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="20" min="17" style="1" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="27" min="23" style="1" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1071428571429"/>
+    <col collapsed="false" hidden="true" max="2" min="2" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="2.93367346938775"/>
+    <col collapsed="false" hidden="true" max="5" min="5" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="6" style="1" width="2.93367346938775"/>
+    <col collapsed="false" hidden="true" max="16" min="16" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="20" min="17" style="1" width="2.93367346938775"/>
+    <col collapsed="false" hidden="true" max="22" min="21" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="27" min="23" style="1" width="2.93367346938775"/>
+    <col collapsed="false" hidden="true" max="28" min="28" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="12.1479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,29 +773,65 @@
       <c r="A2" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
       <c r="O2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
       <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
       <c r="Q3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
       <c r="T3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -740,6 +840,7 @@
       <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D4" s="0"/>
       <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
@@ -773,34 +874,69 @@
       <c r="Q4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
       <c r="T4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
       <c r="H5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
       <c r="Q5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
       <c r="T5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
       <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
       <c r="Q6" s="1" t="n">
         <v>1</v>
       </c>
@@ -813,6 +949,11 @@
       <c r="T6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -824,12 +965,20 @@
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
       <c r="Q7" s="1" t="n">
         <v>1</v>
       </c>
@@ -862,17 +1011,42 @@
       <c r="A8" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
       <c r="Q8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
       <c r="T8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
       <c r="J9" s="1" t="n">
         <v>1</v>
       </c>
@@ -888,26 +1062,52 @@
       <c r="N9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
       <c r="Z9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
       <c r="F10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
       <c r="M10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
       <c r="Y10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -916,9 +1116,15 @@
       <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D11" s="0"/>
       <c r="F11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
       <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
@@ -931,12 +1137,18 @@
       <c r="O11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Z11" s="0"/>
       <c r="AA11" s="1" t="n">
         <v>1</v>
       </c>
@@ -945,15 +1157,20 @@
       <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
       <c r="F12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H12" s="0"/>
       <c r="I12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
@@ -969,14 +1186,27 @@
       <c r="Q12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
       <c r="T12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
       <c r="J13" s="1" t="n">
         <v>1</v>
       </c>
@@ -992,9 +1222,18 @@
       <c r="N13" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
       <c r="Z13" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -1018,6 +1257,12 @@
       <c r="I14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
       <c r="Q14" s="1" t="n">
         <v>1</v>
       </c>
@@ -1027,6 +1272,7 @@
       <c r="S14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="T14" s="0"/>
       <c r="W14" s="1" t="n">
         <v>1</v>
       </c>
@@ -1039,28 +1285,55 @@
       <c r="Z14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
       <c r="F15" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
       <c r="M15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
       <c r="W15" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
       <c r="M16" s="1" t="n">
         <v>1</v>
       </c>
@@ -1070,9 +1343,17 @@
       <c r="O16" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
       <c r="Z16" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -1093,6 +1374,7 @@
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I17" s="0"/>
       <c r="J17" s="1" t="n">
         <v>1</v>
       </c>
@@ -1111,23 +1393,48 @@
       <c r="O17" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
       <c r="Z17" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="C18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
       <c r="I18" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
       <c r="Q18" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
       <c r="T18" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -1139,6 +1446,9 @@
       <c r="F19" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
       <c r="J19" s="1" t="n">
         <v>1</v>
       </c>
@@ -1157,9 +1467,17 @@
       <c r="O19" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1210,6 +1528,7 @@
       <c r="T20" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W20" s="0"/>
       <c r="X20" s="1" t="n">
         <v>1</v>
       </c>
@@ -1239,6 +1558,8 @@
       <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
       <c r="L21" s="1" t="n">
         <v>1</v>
       </c>
@@ -1254,6 +1575,8 @@
       <c r="Q21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
       <c r="Y21" s="1" t="n">
         <v>1</v>
       </c>
@@ -1262,6 +1585,9 @@
       <c r="A22" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="C22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="H22" s="0"/>
       <c r="J22" s="1" t="n">
         <v>1</v>
       </c>
@@ -1280,14 +1606,20 @@
       <c r="O22" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="C23" s="0"/>
       <c r="F23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H23" s="0"/>
       <c r="M23" s="1" t="n">
         <v>1</v>
       </c>
@@ -1297,9 +1629,11 @@
       <c r="O23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q23" s="0"/>
       <c r="W23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="X23" s="0"/>
       <c r="Y23" s="1" t="n">
         <v>1</v>
       </c>
@@ -1329,6 +1663,7 @@
       <c r="Q24" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="X24" s="0"/>
       <c r="Y24" s="1" t="n">
         <v>1</v>
       </c>
@@ -1368,15 +1703,15 @@
   </sheetPr>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB21" activeCellId="0" sqref="AB21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB21" activeCellId="0" sqref="AB:AB"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.219387755102"/>
-    <col collapsed="false" hidden="false" max="28" min="2" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1071428571429"/>
+    <col collapsed="false" hidden="false" max="28" min="2" style="0" width="2.93367346938775"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="12.1479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
